--- a/result/with_base/124/arousal/s13_4.xlsx
+++ b/result/with_base/124/arousal/s13_4.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8425000011920929</v>
+        <v>0.8515625</v>
       </c>
       <c r="C2" t="n">
-        <v>41673.7265625</v>
+        <v>11276.98193359375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8899999965320934</v>
+        <v>0.8621323529411765</v>
       </c>
       <c r="E2" t="n">
-        <v>41670.16193181818</v>
+        <v>11276.72972196691</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8849999904632568</v>
+        <v>0.8755580484867096</v>
       </c>
       <c r="C3" t="n">
-        <v>40878.76171875</v>
+        <v>10965.47998046875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9263636469841003</v>
+        <v>0.8876050430185655</v>
       </c>
       <c r="E3" t="n">
-        <v>40874.87606534091</v>
+        <v>10964.23500689338</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.8872767984867096</v>
       </c>
       <c r="C4" t="n">
-        <v>40094.140625</v>
+        <v>10657.90771484375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9415909051895142</v>
+        <v>0.9216780452167287</v>
       </c>
       <c r="E4" t="n">
-        <v>40090.21697443182</v>
+        <v>10657.09271599265</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8975000083446503</v>
+        <v>0.9001116156578064</v>
       </c>
       <c r="C5" t="n">
-        <v>39319.75</v>
+        <v>10359.099609375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9557954506440596</v>
+        <v>0.933035713784835</v>
       </c>
       <c r="E5" t="n">
-        <v>39316.34339488636</v>
+        <v>10358.35012637868</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.8922991156578064</v>
       </c>
       <c r="C6" t="n">
-        <v>38559.1875</v>
+        <v>10067.1884765625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9645454558459196</v>
+        <v>0.9375656527631423</v>
       </c>
       <c r="E6" t="n">
-        <v>38555.54261363636</v>
+        <v>10066.24718520221</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8950000107288361</v>
+        <v>0.9090401828289032</v>
       </c>
       <c r="C7" t="n">
-        <v>37811.5078125</v>
+        <v>9782.04052734375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9546590772542086</v>
+        <v>0.9420955882352942</v>
       </c>
       <c r="E7" t="n">
-        <v>37808.109375</v>
+        <v>9781.012925091913</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9118303656578064</v>
       </c>
       <c r="C8" t="n">
-        <v>37075.1171875</v>
+        <v>9504.23876953125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9805681976405057</v>
+        <v>0.9445246843730702</v>
       </c>
       <c r="E8" t="n">
-        <v>37072.5546875</v>
+        <v>9503.11328125</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C9" t="n">
-        <v>36354.7109375</v>
+        <v>9232.06689453125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9707954688505693</v>
+        <v>0.9611344547832713</v>
       </c>
       <c r="E9" t="n">
-        <v>36351.40021306818</v>
+        <v>9231.085018382353</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="C10" t="n">
-        <v>35645.810546875</v>
+        <v>8967.24267578125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9842045523903586</v>
+        <v>0.9707195373142466</v>
       </c>
       <c r="E10" t="n">
-        <v>35642.84623579546</v>
+        <v>8966.265682444853</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.929999977350235</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C11" t="n">
-        <v>34949.296875</v>
+        <v>8709.34814453125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.986704555424777</v>
+        <v>0.9736081922755522</v>
       </c>
       <c r="E11" t="n">
-        <v>34947.09375</v>
+        <v>8708.456916360294</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C12" t="n">
-        <v>34266.248046875</v>
+        <v>8457.88037109375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9848863753405485</v>
+        <v>0.9781381312538596</v>
       </c>
       <c r="E12" t="n">
-        <v>34263.98934659091</v>
+        <v>8457.172736672794</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C13" t="n">
-        <v>33595.53515625</v>
+        <v>8213.14599609375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9888636469841003</v>
+        <v>0.9731486334520227</v>
       </c>
       <c r="E13" t="n">
-        <v>33593.40838068182</v>
+        <v>8212.4111328125</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9453125</v>
       </c>
       <c r="C14" t="n">
-        <v>32937.603515625</v>
+        <v>7974.82666015625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9836363792419434</v>
+        <v>0.9805015746284934</v>
       </c>
       <c r="E14" t="n">
-        <v>32935.34552556818</v>
+        <v>7974.011374080882</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9375</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C15" t="n">
-        <v>32291.302734375</v>
+        <v>7742.853515625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.976299895959742</v>
       </c>
       <c r="E15" t="n">
-        <v>32289.19850852273</v>
+        <v>7742.003102022059</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C16" t="n">
-        <v>31657.287109375</v>
+        <v>7516.59326171875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9873293077244478</v>
       </c>
       <c r="E16" t="n">
-        <v>31655.14683948864</v>
+        <v>7515.965935202206</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C17" t="n">
-        <v>31036.5126953125</v>
+        <v>7296.798828125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9865909218788147</v>
+        <v>0.9911370803328121</v>
       </c>
       <c r="E17" t="n">
-        <v>31033.138671875</v>
+        <v>7296.070772058823</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C18" t="n">
-        <v>30424.1435546875</v>
+        <v>7082.720947265625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.9870010509210474</v>
       </c>
       <c r="E18" t="n">
-        <v>30422.41228693182</v>
+        <v>7082.066693474265</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9430803656578064</v>
       </c>
       <c r="C19" t="n">
-        <v>29825.7548828125</v>
+        <v>6874.29736328125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E19" t="n">
-        <v>29823.37411221591</v>
+        <v>6873.680032169118</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C20" t="n">
-        <v>29238.8466796875</v>
+        <v>6671.778564453125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9809091036969965</v>
+        <v>0.9828650215092827</v>
       </c>
       <c r="E20" t="n">
-        <v>29235.68643465909</v>
+        <v>6670.993221507353</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.93359375</v>
       </c>
       <c r="C21" t="n">
-        <v>28660.2734375</v>
+        <v>6474.571533203125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9766281527631423</v>
       </c>
       <c r="E21" t="n">
-        <v>28658.63955965909</v>
+        <v>6473.758645450368</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C22" t="n">
-        <v>28095.732421875</v>
+        <v>6282.732421875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9836363738233392</v>
+        <v>0.9736081922755522</v>
       </c>
       <c r="E22" t="n">
-        <v>28093.01917613636</v>
+        <v>6281.827866498162</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C23" t="n">
-        <v>27540.1630859375</v>
+        <v>6095.518310546875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E23" t="n">
-        <v>27537.60049715909</v>
+        <v>6094.951947380515</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.929999977350235</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C24" t="n">
-        <v>26995.017578125</v>
+        <v>5913.73828125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9925814060603871</v>
       </c>
       <c r="E24" t="n">
-        <v>26992.751953125</v>
+        <v>5913.261431525735</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C25" t="n">
-        <v>26460.70703125</v>
+        <v>5737.012939453125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9938636422157288</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E25" t="n">
-        <v>26458.16033380682</v>
+        <v>5736.53507008272</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C26" t="n">
-        <v>25936.166015625</v>
+        <v>5565.025390625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9934090971946716</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E26" t="n">
-        <v>25933.69229403409</v>
+        <v>5564.62979664522</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C27" t="n">
-        <v>25420.5673828125</v>
+        <v>5398.0380859375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9875919117647058</v>
       </c>
       <c r="E27" t="n">
-        <v>25419.01420454546</v>
+        <v>5397.471564797794</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9475446343421936</v>
       </c>
       <c r="C28" t="n">
-        <v>24915.765625</v>
+        <v>5235.39697265625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9894301470588235</v>
       </c>
       <c r="E28" t="n">
-        <v>24914.12073863636</v>
+        <v>5234.855152803309</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C29" t="n">
-        <v>24420.671875</v>
+        <v>5077.15185546875</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E29" t="n">
-        <v>24418.77361505682</v>
+        <v>5076.689395680147</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9553571343421936</v>
       </c>
       <c r="C30" t="n">
-        <v>23934.244140625</v>
+        <v>4923.293701171875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9949448529411765</v>
       </c>
       <c r="E30" t="n">
-        <v>23932.68252840909</v>
+        <v>4922.897030101103</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C31" t="n">
-        <v>23457.208984375</v>
+        <v>4773.762451171875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9912683823529411</v>
       </c>
       <c r="E31" t="n">
-        <v>23455.833984375</v>
+        <v>4773.379710477941</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C32" t="n">
-        <v>22988.994140625</v>
+        <v>4628.2451171875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9979545474052429</v>
+        <v>0.9911370803328121</v>
       </c>
       <c r="E32" t="n">
-        <v>22987.98295454546</v>
+        <v>4628.016659007353</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C33" t="n">
-        <v>22530.2099609375</v>
+        <v>4487.01025390625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9963235294117647</v>
       </c>
       <c r="E33" t="n">
-        <v>22529.02752130682</v>
+        <v>4486.692124310662</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9676339328289032</v>
       </c>
       <c r="C34" t="n">
-        <v>22080.3271484375</v>
+        <v>4349.615234375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9952731097445768</v>
       </c>
       <c r="E34" t="n">
-        <v>22078.74556107954</v>
+        <v>4349.31339039522</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9637276828289032</v>
       </c>
       <c r="C35" t="n">
-        <v>21638.8369140625</v>
+        <v>4216.032470703125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E35" t="n">
-        <v>21637.05078125</v>
+        <v>4215.775591681985</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9715401828289032</v>
       </c>
       <c r="C36" t="n">
-        <v>21205.095703125</v>
+        <v>4086.211059570312</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9962578766486224</v>
       </c>
       <c r="E36" t="n">
-        <v>21203.56392045454</v>
+        <v>4085.960951861213</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C37" t="n">
-        <v>20779.90234375</v>
+        <v>3960.151977539062</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E37" t="n">
-        <v>20778.34463778409</v>
+        <v>3959.800450942096</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9715401828289032</v>
       </c>
       <c r="C38" t="n">
-        <v>20363.0712890625</v>
+        <v>3837.458740234375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E38" t="n">
-        <v>20361.21537642046</v>
+        <v>3837.170769186581</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C39" t="n">
-        <v>19953.208984375</v>
+        <v>3718.319580078125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9906775215092827</v>
       </c>
       <c r="E39" t="n">
-        <v>19952.01136363636</v>
+        <v>3718.011532054228</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C40" t="n">
-        <v>19551.875</v>
+        <v>3602.536254882812</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E40" t="n">
-        <v>19550.55539772727</v>
+        <v>3602.196403952206</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C41" t="n">
-        <v>19158.01171875</v>
+        <v>3489.87744140625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.996651786215165</v>
       </c>
       <c r="E41" t="n">
-        <v>19156.658203125</v>
+        <v>3489.65767176011</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9375</v>
       </c>
       <c r="C42" t="n">
-        <v>18771.802734375</v>
+        <v>3380.71484375</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9824711119427401</v>
       </c>
       <c r="E42" t="n">
-        <v>18770.21590909091</v>
+        <v>3380.382108800552</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9453125</v>
       </c>
       <c r="C43" t="n">
-        <v>18392.376953125</v>
+        <v>3274.3818359375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9925814060603871</v>
       </c>
       <c r="E43" t="n">
-        <v>18391.11044034091</v>
+        <v>3274.128848805147</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C44" t="n">
-        <v>18020.4189453125</v>
+        <v>3171.215942382812</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9979545474052429</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E44" t="n">
-        <v>18019.2265625</v>
+        <v>3170.947653377757</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="C45" t="n">
-        <v>17655.49609375</v>
+        <v>3070.882934570312</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9963235294117647</v>
       </c>
       <c r="E45" t="n">
-        <v>17654.41352982954</v>
+        <v>3070.712790096507</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C46" t="n">
-        <v>17298.1103515625</v>
+        <v>2973.61083984375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9889049354721519</v>
       </c>
       <c r="E46" t="n">
-        <v>17296.52379261364</v>
+        <v>2973.368867761948</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C47" t="n">
-        <v>16946.2451171875</v>
+        <v>2879.125122070312</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.9880514705882353</v>
       </c>
       <c r="E47" t="n">
-        <v>16945.42436079546</v>
+        <v>2878.819206686581</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C48" t="n">
-        <v>16602.279296875</v>
+        <v>2787.134765625</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E48" t="n">
-        <v>16601.03444602273</v>
+        <v>2786.960363051471</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C49" t="n">
-        <v>16264.4521484375</v>
+        <v>2697.967529296875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E49" t="n">
-        <v>16263.17462713068</v>
+        <v>2697.775692210478</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9453125</v>
       </c>
       <c r="C50" t="n">
-        <v>15932.44287109375</v>
+        <v>2611.432983398438</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9851628156269298</v>
       </c>
       <c r="E50" t="n">
-        <v>15931.75035511364</v>
+        <v>2611.198270909927</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,883 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C51" t="n">
-        <v>15608.0166015625</v>
+        <v>2527.305297851562</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9897584038622239</v>
       </c>
       <c r="E51" t="n">
-        <v>15606.66077769886</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15289.10107421875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15287.75630326705</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9550000131130219</v>
-      </c>
-      <c r="C53" t="n">
-        <v>14975.90771484375</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E53" t="n">
-        <v>14974.91832386364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14668.916015625</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14668.06196732955</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9324999749660492</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14368.29931640625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9975000023841858</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14367.08132102273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14072.39208984375</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14071.82581676136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13783.16357421875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13782.24991122159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.925000011920929</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13498.86474609375</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13498.20081676136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13220.421875</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13219.59303977273</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12947.23388671875</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9961363673210144</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12946.33069957386</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12679.09716796875</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12678.28773082386</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9225000143051147</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12416.20849609375</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12415.3876953125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12158.39697265625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12157.54811789773</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11905.42431640625</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11904.67879971591</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11657.3837890625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11656.67391690341</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9225000143051147</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11414.330078125</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11413.44762073864</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11175.80322265625</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11174.90642755682</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10941.78076171875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10940.96404474432</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10712.341796875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10711.55051491477</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10487.150390625</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10486.58354048295</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10266.91015625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9951136383143339</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10265.98961292614</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10050.2841796875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10049.64950284091</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9324999749660492</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9838.07568359375</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9837.500355113636</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9630.14697265625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9629.489080255682</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9426.154296875</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9425.519087357954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9226.27392578125</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9225.527698863636</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9029.98681640625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9029.431995738636</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8837.85888671875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8837.165838068182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8649.208984375</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8648.650035511364</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8464.4287109375</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8463.849786931818</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8283.2421875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9975000023841858</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8282.6708984375</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4102564102564102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.02985074626865672</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.02985074626865672</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8717948717948718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03980099502487562</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8717948717948718</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03980099502487562</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8974358974358975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.07960199004975124</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8974358974358975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.07960199004975124</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.0945273631840796</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.0945273631840796</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9487179487179487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.09950248756218906</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9487179487179487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.09950248756218906</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1144278606965174</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.1144278606965174</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9882638091593315</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9656843985202195</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9656843985202195</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9054726368159204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9656843985202195</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9104477611940298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.1025641025641026</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9656843985202195</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9253731343283582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.1025641025641026</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9656843985202195</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9353233830845771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.1025641025641026</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9656843985202195</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9502487562189055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.1025641025641026</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9656843985202195</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9601990049751243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9656843985202195</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9601990049751243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9656843985202195</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9701492537313433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9656843985202195</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9701492537313433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9656843985202195</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9656843985202195</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>2527.11962890625</v>
       </c>
     </row>
   </sheetData>
